--- a/artfynd/A 40400-2023.xlsx
+++ b/artfynd/A 40400-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111801760</v>
+        <v>111801750</v>
       </c>
       <c r="B2" t="n">
-        <v>89558</v>
+        <v>89745</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1503</v>
+        <v>2062</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507292.6252952328</v>
+        <v>507350.4792540679</v>
       </c>
       <c r="R2" t="n">
-        <v>6946995.844692842</v>
+        <v>6946859.423841522</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111801750</v>
+        <v>111801756</v>
       </c>
       <c r="B3" t="n">
-        <v>89745</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2062</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507350.4792540679</v>
+        <v>507338.8401105705</v>
       </c>
       <c r="R3" t="n">
-        <v>6946859.423841522</v>
+        <v>6946917.328540379</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111801756</v>
+        <v>111801751</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507338.8401105705</v>
+        <v>507350.4792540679</v>
       </c>
       <c r="R4" t="n">
-        <v>6946917.328540379</v>
+        <v>6946859.423841522</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111801751</v>
+        <v>111801760</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89558</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>1503</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507350.4792540679</v>
+        <v>507292.6252952328</v>
       </c>
       <c r="R5" t="n">
-        <v>6946859.423841522</v>
+        <v>6946995.844692842</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 40400-2023.xlsx
+++ b/artfynd/A 40400-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111801750</v>
+        <v>111801760</v>
       </c>
       <c r="B2" t="n">
-        <v>89745</v>
+        <v>89558</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2062</v>
+        <v>1503</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507350.4792540679</v>
+        <v>507292.6252952328</v>
       </c>
       <c r="R2" t="n">
-        <v>6946859.423841522</v>
+        <v>6946995.844692842</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111801756</v>
+        <v>111801751</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507338.8401105705</v>
+        <v>507350.4792540679</v>
       </c>
       <c r="R3" t="n">
-        <v>6946917.328540379</v>
+        <v>6946859.423841522</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111801751</v>
+        <v>111801756</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>77267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507350.4792540679</v>
+        <v>507338.8401105705</v>
       </c>
       <c r="R4" t="n">
-        <v>6946859.423841522</v>
+        <v>6946917.328540379</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111801760</v>
+        <v>111801750</v>
       </c>
       <c r="B5" t="n">
-        <v>89558</v>
+        <v>89745</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1503</v>
+        <v>2062</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507292.6252952328</v>
+        <v>507350.4792540679</v>
       </c>
       <c r="R5" t="n">
-        <v>6946995.844692842</v>
+        <v>6946859.423841522</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 40400-2023.xlsx
+++ b/artfynd/A 40400-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111801760</v>
+        <v>111801750</v>
       </c>
       <c r="B2" t="n">
-        <v>89558</v>
+        <v>89745</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1503</v>
+        <v>2062</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507292.6252952328</v>
+        <v>507350.4792540679</v>
       </c>
       <c r="R2" t="n">
-        <v>6946995.844692842</v>
+        <v>6946859.423841522</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111801751</v>
+        <v>111801760</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>89558</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>1503</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507350.4792540679</v>
+        <v>507292.6252952328</v>
       </c>
       <c r="R3" t="n">
-        <v>6946859.423841522</v>
+        <v>6946995.844692842</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111801750</v>
+        <v>111801751</v>
       </c>
       <c r="B5" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>

--- a/artfynd/A 40400-2023.xlsx
+++ b/artfynd/A 40400-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111801750</v>
+        <v>111801760</v>
       </c>
       <c r="B2" t="n">
-        <v>89745</v>
+        <v>89558</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2062</v>
+        <v>1503</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507350.4792540679</v>
+        <v>507292.6252952328</v>
       </c>
       <c r="R2" t="n">
-        <v>6946859.423841522</v>
+        <v>6946995.844692842</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111801760</v>
+        <v>111801750</v>
       </c>
       <c r="B3" t="n">
-        <v>89558</v>
+        <v>89745</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1503</v>
+        <v>2062</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507292.6252952328</v>
+        <v>507350.4792540679</v>
       </c>
       <c r="R3" t="n">
-        <v>6946995.844692842</v>
+        <v>6946859.423841522</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111801756</v>
+        <v>111801751</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507338.8401105705</v>
+        <v>507350.4792540679</v>
       </c>
       <c r="R4" t="n">
-        <v>6946917.328540379</v>
+        <v>6946859.423841522</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111801751</v>
+        <v>111801756</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>77267</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507350.4792540679</v>
+        <v>507338.8401105705</v>
       </c>
       <c r="R5" t="n">
-        <v>6946859.423841522</v>
+        <v>6946917.328540379</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 40400-2023.xlsx
+++ b/artfynd/A 40400-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111801760</v>
+        <v>111801756</v>
       </c>
       <c r="B2" t="n">
-        <v>89558</v>
+        <v>77267</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1503</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507292.6252952328</v>
+        <v>507338.8401105705</v>
       </c>
       <c r="R2" t="n">
-        <v>6946995.844692842</v>
+        <v>6946917.328540379</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111801750</v>
+        <v>111801760</v>
       </c>
       <c r="B3" t="n">
-        <v>89745</v>
+        <v>89558</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2062</v>
+        <v>1503</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507350.4792540679</v>
+        <v>507292.6252952328</v>
       </c>
       <c r="R3" t="n">
-        <v>6946859.423841522</v>
+        <v>6946995.844692842</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111801751</v>
+        <v>111801750</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111801756</v>
+        <v>111801751</v>
       </c>
       <c r="B5" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507338.8401105705</v>
+        <v>507350.4792540679</v>
       </c>
       <c r="R5" t="n">
-        <v>6946917.328540379</v>
+        <v>6946859.423841522</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 40400-2023.xlsx
+++ b/artfynd/A 40400-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111801756</v>
+        <v>111801751</v>
       </c>
       <c r="B2" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507338.8401105705</v>
+        <v>507350.4792540679</v>
       </c>
       <c r="R2" t="n">
-        <v>6946917.328540379</v>
+        <v>6946859.423841522</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111801760</v>
+        <v>111801756</v>
       </c>
       <c r="B3" t="n">
-        <v>89558</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1503</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507292.6252952328</v>
+        <v>507338.8401105705</v>
       </c>
       <c r="R3" t="n">
-        <v>6946995.844692842</v>
+        <v>6946917.328540379</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111801751</v>
+        <v>111801760</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89558</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>1503</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507350.4792540679</v>
+        <v>507292.6252952328</v>
       </c>
       <c r="R5" t="n">
-        <v>6946859.423841522</v>
+        <v>6946995.844692842</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 40400-2023.xlsx
+++ b/artfynd/A 40400-2023.xlsx
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507350.4792540679</v>
+        <v>507350</v>
       </c>
       <c r="R2" t="n">
-        <v>6946859.423841522</v>
+        <v>6946859</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,19 +756,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -839,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507338.8401105705</v>
+        <v>507339</v>
       </c>
       <c r="R3" t="n">
-        <v>6946917.328540379</v>
+        <v>6946917</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,19 +862,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -912,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111801750</v>
+        <v>111801760</v>
       </c>
       <c r="B4" t="n">
-        <v>89745</v>
+        <v>89558</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +908,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2062</v>
+        <v>1503</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -955,10 +935,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507350.4792540679</v>
+        <v>507293</v>
       </c>
       <c r="R4" t="n">
-        <v>6946859.423841522</v>
+        <v>6946996</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -988,19 +968,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1028,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111801760</v>
+        <v>111801750</v>
       </c>
       <c r="B5" t="n">
-        <v>89558</v>
+        <v>89745</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1014,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1503</v>
+        <v>2062</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1041,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507292.6252952328</v>
+        <v>507350</v>
       </c>
       <c r="R5" t="n">
-        <v>6946995.844692842</v>
+        <v>6946859</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1104,19 +1074,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 40400-2023.xlsx
+++ b/artfynd/A 40400-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111801751</v>
+        <v>111801760</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>89558</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>1503</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507350</v>
+        <v>507293</v>
       </c>
       <c r="R2" t="n">
-        <v>6946859</v>
+        <v>6946996</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111801756</v>
+        <v>111801750</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>89745</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>2062</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507339</v>
+        <v>507350</v>
       </c>
       <c r="R3" t="n">
-        <v>6946917</v>
+        <v>6946859</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111801760</v>
+        <v>111801751</v>
       </c>
       <c r="B4" t="n">
-        <v>89558</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -904,25 +904,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1503</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507293</v>
+        <v>507350</v>
       </c>
       <c r="R4" t="n">
-        <v>6946996</v>
+        <v>6946859</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111801750</v>
+        <v>111801756</v>
       </c>
       <c r="B5" t="n">
-        <v>89745</v>
+        <v>77267</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1010,25 +1010,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2062</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1041,10 +1041,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507350</v>
+        <v>507339</v>
       </c>
       <c r="R5" t="n">
-        <v>6946859</v>
+        <v>6946917</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
